--- a/date/爬取电影数据.xlsx
+++ b/date/爬取电影数据.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>中国大陆、中国香港 / 171 分钟</t>
+          <t>中国大陆、中国香港</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>法国 / 110 分钟</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>美国 / 142 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>美国 / 194 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>美国 / 118 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>中国香港 / 102 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>美国 / 238 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>中国香港 / 85 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>美国 / 103 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>上映</t>
+          <t xml:space="preserve"> 上映</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>美国 / 89 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>美国、英国、德国 / 132 分钟</t>
+          <t>美国、英国、德国</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>美国、中国台湾、英国、加拿大 / 127 分钟</t>
+          <t>美国、中国台湾、英国、加拿大</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>美国 / 135 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>泰国 / 118 分钟</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>日本 / 94 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>中国台湾、日本 / 173 分钟</t>
+          <t>中国台湾、日本</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>意大利 / 116 分钟</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>意大利 / 126 分钟</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>日本 / 125 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>法国、德国、意大利、西班牙、瑞士 / 98 分钟</t>
+          <t>法国、德国、意大利、西班牙、瑞士</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>意大利、西班牙、西德 / 161 分钟</t>
+          <t>意大利、西班牙、西德</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>法国、瑞士、西班牙、美国、阿联酋 / 104 分钟</t>
+          <t>法国、瑞士、西班牙、美国、阿联酋</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>韩国 / 118 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中国香港 / 94 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>韩国 / 127 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>韩国 / 80 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>日本 / 86 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>日本 / 207 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>意大利、美国 / 229 分钟</t>
+          <t>意大利、美国</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>美国 / 138 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>巴西、法国 / 130 分钟</t>
+          <t>巴西、法国</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>上映</t>
+          <t xml:space="preserve"> 上映</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>韩国 / 127 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>日本 / 107 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>美国 / 92 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>中国香港 / 95 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>韩国 / 97 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>德国 / 137 分钟</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>英国 / 123 分钟</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>英国、美国 / 94 分钟</t>
+          <t>英国、美国</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>美国 / 175 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>日本 / 45 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>韩国 / 123 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>伊朗 / 89 分钟</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>上映</t>
+          <t xml:space="preserve"> 上映</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>韩国 / 125 分钟</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆 / 110 分钟</t>
+          <t>中国香港、中国大陆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆 / 88 分钟</t>
+          <t>中国香港、中国大陆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>法国 / 112 分钟</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>法国、德国、英国、波兰 / 150 分钟</t>
+          <t>法国、德国、英国、波兰</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>美国 / 166 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>中国香港 / 98 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>英国、美国 / 130 分钟</t>
+          <t>英国、美国</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中国香港 / 118 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>美国、英国 / 165 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>中国大陆 / 139 分钟</t>
+          <t>中国大陆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>美国 / 101 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>美国、英国 / 130 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>美国、法国 / 95 分钟</t>
+          <t>美国、法国</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>美国、加拿大 / 134 分钟</t>
+          <t>美国、加拿大</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>美国 / 90 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>美国 / 98 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>美国 / 96 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>美国、澳大利亚 / 129 分钟</t>
+          <t>美国、澳大利亚</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>美国 / 130 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>美国 / 177 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>印度 / 171 分钟</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>美国 / 157 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>英国、意大利、中国大陆、法国、美国 / 163 分钟</t>
+          <t>英国、意大利、中国大陆、法国、美国</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>日本 / 117 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>上映</t>
+          <t xml:space="preserve"> 上映</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆 / 87 分钟</t>
+          <t>中国香港、中国大陆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>法国、德国、瑞士 / 97 分钟</t>
+          <t>法国、德国、瑞士</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>美国 / 117 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>日本 / 134 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>美国 / 96 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>美国、德国 / 139 分钟</t>
+          <t>美国、德国</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>美国 / 98 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>美国、英国 / 162 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>日本 / 119 分钟</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>美国、英国 / 148 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>美国、英国 / 93 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>美国 / 169 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>中国大陆、中国香港 / 132 分钟</t>
+          <t>中国大陆、中国香港</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>美国 / 98 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>意大利、法国 / 155 分钟</t>
+          <t>意大利、法国</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>美国、新西兰 / 179 分钟</t>
+          <t>美国、新西兰</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>新西兰、美国 / 178 分钟</t>
+          <t>新西兰、美国</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>中国香港 / 113 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>美国、英国 / 152 分钟</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>中国香港 / 101 分钟</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>美国 / 202 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>美国 / 143 分钟</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3158,6 +3158,306 @@
       <c r="F91" t="inlineStr">
         <is>
           <t>2003-11-21 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石 - Harry Potter and the Sorcerer's Stone</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>美国、英国</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>奇幻冒险</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2002-01-26 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌 - The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>美国、新西兰</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>剧情动作奇幻冒险</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2004-03-15 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>黑客帝国 - The Matrix</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>美国、澳大利亚</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>动作科幻</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2000-01-14 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华 - Edward Scissorhands</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>剧情爱情奇幻</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1990-12-06 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>春光乍泄 - Happy Together</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>中国香港、日本、韩国</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>剧情爱情</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1997-05-17 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>大闹天宫 - The Monkey King</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>动画奇幻</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1965-12-31 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>天空之城 - 天空の城ラピュタ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>动画奇幻冒险</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1992-05-01 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>音乐之声 - The Sound of Music</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>剧情爱情歌舞传记</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1965-03-02 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>辛德勒的名单 - Schindler's List</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>剧情历史战争</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1993-11-30 上映</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>魂断蓝桥 - Waterloo Bridge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>剧情爱情战争</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1940-05-17 上映</t>
         </is>
       </c>
     </row>
